--- a/data/spring-boot-microservices/hotels-aggregator-service_structure.xlsx
+++ b/data/spring-boot-microservices/hotels-aggregator-service_structure.xlsx
@@ -384,33 +384,33 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>AUJ</t>
+  </si>
+  <si>
     <t>AUH</t>
   </si>
   <si>
     <t>AUE</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>AUJ</t>
+    <t>hotelFare</t>
+  </si>
+  <si>
+    <t>hotelId</t>
+  </si>
+  <si>
+    <t>roomAmenitites</t>
+  </si>
+  <si>
+    <t>hotelRate</t>
   </si>
   <si>
     <t>hotelName</t>
   </si>
   <si>
-    <t>hotelId</t>
-  </si>
-  <si>
-    <t>hotelFare</t>
-  </si>
-  <si>
-    <t>roomAmenitites</t>
-  </si>
-  <si>
-    <t>hotelRate</t>
-  </si>
-  <si>
     <t>discoveryClient</t>
   </si>
   <si>
@@ -423,37 +423,37 @@
     <t>org.springframework.cloud.client.loadbalancer.LoadBalancerClient</t>
   </si>
   <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>discount</t>
   </si>
   <si>
+    <t>amenitites</t>
+  </si>
+  <si>
     <t>crazyHotelId</t>
   </si>
   <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>amenitites</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>fare</t>
   </si>
   <si>
     <t>aminities</t>
   </si>
   <si>
-    <t>fare</t>
-  </si>
-  <si>
-    <t>provider</t>
-  </si>
-  <si>
     <t>hotelProvidersService</t>
   </si>
   <si>
+    <t>crazyHotelClient</t>
+  </si>
+  <si>
     <t>bestHotelClient</t>
-  </si>
-  <si>
-    <t>crazyHotelClient</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -5018,10 +5018,10 @@
         <v>120</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -5046,10 +5046,10 @@
         <v>122</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -5077,7 +5077,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -5105,7 +5105,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -5119,7 +5119,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -5133,7 +5133,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -5189,7 +5189,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -5197,7 +5197,7 @@
         <v>61</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>31</v>
@@ -5211,13 +5211,13 @@
         <v>61</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>31</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -5225,13 +5225,13 @@
         <v>61</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>31</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -5239,13 +5239,13 @@
         <v>61</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>31</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -5259,7 +5259,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -5267,7 +5267,7 @@
         <v>83</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>31</v>
@@ -5281,13 +5281,13 @@
         <v>83</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>31</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -5295,7 +5295,7 @@
         <v>83</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>31</v>
@@ -5309,13 +5309,13 @@
         <v>83</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>31</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -5343,7 +5343,7 @@
         <v>31</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -5357,7 +5357,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
